--- a/documentations/1.2 Detailed Design.xlsx
+++ b/documentations/1.2 Detailed Design.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewzhu/Desktop/download/Massey/NZLife/CVs/cover letter/Westpac/assessment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewzhu/projects/SimpleWeatherInformationService/documentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5AB00E-4E0D-504F-821D-4F566ABAF93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAE237D-CCFA-3D44-9142-630D6FAD6754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="500" windowWidth="27900" windowHeight="16460" xr2:uid="{C4F7C2B9-1629-B94C-A59B-FF182AF2B448}"/>
+    <workbookView xWindow="740" yWindow="500" windowWidth="27900" windowHeight="16460" activeTab="3" xr2:uid="{C4F7C2B9-1629-B94C-A59B-FF182AF2B448}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pojo" sheetId="9" r:id="rId1"/>
+    <sheet name="Pojo &amp; Exception" sheetId="9" r:id="rId1"/>
     <sheet name="controller layer " sheetId="1" r:id="rId2"/>
     <sheet name="service layer" sheetId="3" r:id="rId3"/>
     <sheet name="Repositor_ DAO layer" sheetId="5" r:id="rId4"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="125">
   <si>
     <t>WeatherInformationController</t>
   </si>
@@ -98,11 +98,6 @@
   </si>
   <si>
     <t>availableService</t>
-  </si>
-  <si>
-    <t>1. Return all avaiable services to user
-2. Mapoed to the uri "/""
-3. jakarta.servlet.http.HttpServletResponse do not need iuput from client side, this is defualt input from Spring Framework</t>
   </si>
   <si>
     <t>co.nz.westpac.interview.simpleweatherinformationservice.service;</t>
@@ -406,58 +401,78 @@
     <t>method to be implemented in the implementation class fro get the available cities' name</t>
   </si>
   <si>
-    <t>1, Getting the request from service layer
+    <t>1. Mapoed to the uri "/queryweatherbycities"
+2. Accept the list of city as query request from clients 
+3. if the cities amount &gt;3, get  INPUT_EXCEED_MESSAGE from MessageUtil and return to the client
+4. If the cities amount = 0, get  NO_INPUT_CITY_MESSAGE from MessageUtil and return to client
+5. Otherwise, pass cities information to service layer, call WeatherInformationService's  queryWeatherByCities method to get value then return the result to the client
+6. If Service Exception  thrown from the service layer,
+get  SERVICE_EXCEPTION_MESSAGE from MessageUtil and return to client 
+7. If DataQueryException Exception is thrown from the service layer,
+get  DAO_EXCEPTION_MESSAGE from MessageUtil and return to the client 
+8. if other Exceptions thrown from the service layer,
+get  UNKNOW_EXCEPTION_MESSAGE from MessageUtil and return to the client 
+9. jakarta.servlet.http.HttpServletResponse do not need input from client side, this is default input from Spring Framework</t>
+  </si>
+  <si>
+    <t>1. Mapoed to the uri "/availablecities"
+2. call WeatherInformationService's  queryWeatherByCities method to get  all available cities for weather information query, return to client-side
+3. if ServiceException is thrown from service layer,
+get  SERVICE_EXCEPTION_MESSAGE from MessageUtil and return to client 
+4. If DataQueryExceptionis thrown from the service layer,
+get  DAO_EXCEPTION_MESSAGE from MessageUtil and return to the client 
+5. if other Exceptions thrown from the service layer,
+get  UNKNOW_EXCEPTION_MESSAGE from MessageUtil and return to the client 
+6. jakarta.servlet.http.HttpServletResponse do not need input from the client side, this is the default input from Spring Framework</t>
+  </si>
+  <si>
+    <t>1. Mapoed to the uri "/""
+2. Return a simple manual to the client
+3. jakarta.servlet.http.HttpServletResponse do not need input from client side, this is default input from Spring Framework</t>
+  </si>
+  <si>
+    <t>1. Accepting the list of cities as a query from the controller side
+2. Passing the cities information to WeatherRecordDao, call queryWeatherByCities method
+3. Getting the result  from WeatherRecordDao, Add the date information for each valid weather information 
+4.  Return the value to the controller layer
+5. if WeatherRecordDao return any exceptions, throw to the controller layer
+6. If ServiceException or any Exception occurred,  throw to the controller layer</t>
+  </si>
+  <si>
+    <t>1. Accepting the request from controller side
+2. Passing the cities information to WeatherRecordDao, call getAvailableCities method
+3.  Return the value to the controller layer
+4. if WeatherRecordDao return any exceptions, throw to the controller
+5. If ServiceException or any Exception occurred,  throw to the controller</t>
+  </si>
+  <si>
+    <t>1. Accepting the list of cities as a query request from the service layer
+2. Loop cities information, for each city get the city name, for each, call MockedDatabase's getWeatherByCity() method to get the query result 
+3. If the result is not null, put it into the return  list
+4. If the result is  null, call WeatherRecordUtil.createWeatherRecordForNotExistCity to get a weather in formation with the city not available tips
+5. Return the result list to the service Layer
+6. If DataQueryException or any Exception occurs,  throw it to the service layer</t>
+  </si>
+  <si>
+    <t>1, Getting the request from the service layer
 2. call MockedDatabase's getAvailableCities method to get available cities' data
-3. return data to service layer
-4. If DataQueryException or any Exception occurred,  throw to service layer</t>
-  </si>
-  <si>
-    <t>1. Accepting the list of city as  query from service layer
-2. Loop cities information, get city name, for each, call MockedDatabase's getWeatherByCity() method to get the query result 
-3. if result is not null, put it into return  list
-4.  if result is  null, call WeatherRecordUtil.createWeatherRecordForNotExistCity to get a weather in formation with city not avaibale tips
-5. Return result list to service Layer
-6. If DataQueryException or any Exception occurred,  throw to service layer</t>
-  </si>
-  <si>
-    <t>1. Accepting the list of city as  query from controller side
-2. Passing the cities information to WeatherRecordDao, call queryWeatherByCities method
-3. Getting the result  fron WeatherRecordDao, Add the date information for each vaild wearther information 
-4.  Return the value to controller layer
-5. if WeatherRecordDao return any excceptions, throw to controller
-6. If ServiceException or any Exception occurred,  throw to controller</t>
-  </si>
-  <si>
-    <t>1. Accepting the list of city as  query from controller side
-2. Passing the cities information to WeatherRecordDao, call getAvailableCities method
-3.  Return the value to controller layer
-4. if WeatherRecordDao return any excceptions, throw to controller
-5. If ServiceException or any Exception occurred,  throw to controller</t>
-  </si>
-  <si>
-    <t>1. Mapoed to the uri "/queryweatherbycities"
-2. Accept the list of city as  query from clients 
-3. if the cities amount &gt;3, get  INPUT_EXCEED_MESSAGE from MessageUtil and return to client
-4. If the cities amount = 0, get  NO_INPUT_CITY_MESSAGE from MessageUtil and return to client
-5. Other wise, pass cities inforation to service layer, call WeatherInformationService's  queryWeatherByCities method to get value then return the result to client
-6. if Service Exception  thrown from service layer,
-get  SERVICE_EXCEPTION_MESSAGE from MessageUtil and return to client 
-7. if Repository/DAO Exception  thrown from service layer,
-get  DAO_EXCEPTION_MESSAGE from MessageUtil and return to client 
-8. if other Exception  thrown from service layer,
-get  UNKNOW_EXCEPTION_MESSAGE from MessageUtil and return to client 
-9. jakarta.servlet.http.HttpServletResponse do not need iuput from client side, this is defualt input from Spring Framework</t>
-  </si>
-  <si>
-    <t>1. Mapoed to the uri "/availablecities"
-2. call WeatherInformationService's  queryWeatherByCities method get  all avaiable cities for weather information query, return to client side
-3. if Service Exception  thrown from service layer,
-get  SERVICE_EXCEPTION_MESSAGE from MessageUtil and return to client 
-4. if Repository/DAO Exception  thrown from service layer,
-get  DAO_EXCEPTION_MESSAGE from MessageUtil and return to client 
-5. if other Exception  thrown from service layer,
-get  UNKNOW_EXCEPTION_MESSAGE from MessageUtil and return to client 
-6. jakarta.servlet.http.HttpServletResponse do not need iuput from client side, this is defualt input from Spring Framework</t>
+3. return data to the service layer
+4. If DataQueryException or any Exception occurred,  throw to the service layer</t>
+  </si>
+  <si>
+    <t>co.nz.westpac.interview.simpleweatherinformationservice.Exceptions</t>
+  </si>
+  <si>
+    <t>DataQueryException</t>
+  </si>
+  <si>
+    <t>Customized Exception for exception occurred in dao layer</t>
+  </si>
+  <si>
+    <t>ServiceException</t>
+  </si>
+  <si>
+    <t>ustomized Exception for exception occurred in service layer</t>
   </si>
 </sst>
 </file>
@@ -557,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -565,9 +580,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -597,9 +609,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -934,321 +959,383 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115DC55E-9174-DF40-931C-7803CBFD96CD}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B50" sqref="B50"/>
+      <selection pane="topRight" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="72.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="56.83203125" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="1" width="26.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="72.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="56.83203125" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="B32" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="B33" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="7" t="s">
+    <row r="36" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="B39" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="C39" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
+    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="C41" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="B45" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="B46" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="B47" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
+      <c r="B51" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
+      <c r="B52" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>103</v>
+      <c r="B53" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1260,9 +1347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CF29C3-6CCF-5E40-B7B3-48E005714D48}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G10" sqref="G10"/>
+      <selection pane="topRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1271,11 +1358,11 @@
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.83203125" customWidth="1"/>
-    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="5" max="5" width="43.33203125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1283,15 +1370,15 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1299,10 +1386,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1315,23 +1402,23 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="C8" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1342,13 +1429,13 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="323" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="293" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1359,10 +1446,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>119</v>
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -1376,10 +1463,10 @@
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1391,9 +1478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530541A8-86E8-6440-91A5-C91B7ED15BC0}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C24" sqref="C24"/>
+      <selection pane="topRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1406,43 +1493,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="C5" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1454,13 +1541,13 @@
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -1469,51 +1556,51 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>35</v>
+      <c r="B12" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1521,39 +1608,39 @@
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="C19" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1561,27 +1648,27 @@
         <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1594,9 +1681,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B6D489-6F2E-434C-86EF-267FE6BF2BFB}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A21" sqref="A21"/>
+      <selection pane="topRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1609,43 +1696,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="C5" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1657,13 +1744,13 @@
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1672,51 +1759,51 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>104</v>
+      <c r="A13" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1724,39 +1811,39 @@
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="C19" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="187" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="188" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1764,13 +1851,13 @@
         <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>115</v>
+        <v>32</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -1780,10 +1867,10 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>114</v>
+        <v>32</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1797,7 +1884,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1810,324 +1897,324 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="C9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="5" t="s">
-        <v>49</v>
+      <c r="C11" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="13" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="C19" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="13" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="16" t="s">
+      <c r="C35" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="13" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/documentations/1.2 Detailed Design.xlsx
+++ b/documentations/1.2 Detailed Design.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewzhu/projects/SimpleWeatherInformationService/documentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAE237D-CCFA-3D44-9142-630D6FAD6754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A2C540-A416-3C4C-9E8C-F9A10666D899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="500" windowWidth="27900" windowHeight="16460" activeTab="3" xr2:uid="{C4F7C2B9-1629-B94C-A59B-FF182AF2B448}"/>
+    <workbookView xWindow="740" yWindow="500" windowWidth="27900" windowHeight="16460" xr2:uid="{C4F7C2B9-1629-B94C-A59B-FF182AF2B448}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pojo &amp; Exception" sheetId="9" r:id="rId1"/>
-    <sheet name="controller layer " sheetId="1" r:id="rId2"/>
-    <sheet name="service layer" sheetId="3" r:id="rId3"/>
-    <sheet name="Repositor_ DAO layer" sheetId="5" r:id="rId4"/>
-    <sheet name="Utils &amp; Constants" sheetId="7" r:id="rId5"/>
+    <sheet name="Spring Framework" sheetId="11" r:id="rId1"/>
+    <sheet name="Pojo &amp; Exception" sheetId="9" r:id="rId2"/>
+    <sheet name="controller layer " sheetId="1" r:id="rId3"/>
+    <sheet name="service layer" sheetId="3" r:id="rId4"/>
+    <sheet name="Repositor_ DAO layer" sheetId="5" r:id="rId5"/>
+    <sheet name="Utils &amp; Constants" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="131">
   <si>
     <t>WeatherInformationController</t>
   </si>
@@ -473,6 +474,24 @@
   </si>
   <si>
     <t>ustomized Exception for exception occurred in service layer</t>
+  </si>
+  <si>
+    <t>SimpleWeatherInformationServiceApplication</t>
+  </si>
+  <si>
+    <t>co.nz.westpac.interview.simpleweatherinformationservice</t>
+  </si>
+  <si>
+    <t>City class used for start the application</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>String[]</t>
+  </si>
+  <si>
+    <t>Excute this for initial the in-memory database and start the application</t>
   </si>
 </sst>
 </file>
@@ -958,12 +977,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3DE262-5779-5D41-9E7A-F5AA61D5FC2A}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="72.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="56.83203125" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115DC55E-9174-DF40-931C-7803CBFD96CD}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B58" sqref="B58"/>
+      <selection pane="topRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1343,13 +1432,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CF29C3-6CCF-5E40-B7B3-48E005714D48}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E18" sqref="E18"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1474,7 +1563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530541A8-86E8-6440-91A5-C91B7ED15BC0}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -1677,11 +1766,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B6D489-6F2E-434C-86EF-267FE6BF2BFB}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E24" sqref="E24"/>
     </sheetView>
@@ -1878,7 +1967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733CCE45-27B2-E14A-A1F2-A31BA049C60F}">
   <dimension ref="A1:E42"/>
   <sheetViews>

--- a/documentations/1.2 Detailed Design.xlsx
+++ b/documentations/1.2 Detailed Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewzhu/projects/SimpleWeatherInformationService/documentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A2C540-A416-3C4C-9E8C-F9A10666D899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04DA178-79A2-5B49-ADE9-8068F61976A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="500" windowWidth="27900" windowHeight="16460" xr2:uid="{C4F7C2B9-1629-B94C-A59B-FF182AF2B448}"/>
+    <workbookView xWindow="740" yWindow="500" windowWidth="27900" windowHeight="16460" activeTab="1" xr2:uid="{C4F7C2B9-1629-B94C-A59B-FF182AF2B448}"/>
   </bookViews>
   <sheets>
     <sheet name="Spring Framework" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="132">
   <si>
     <t>WeatherInformationController</t>
   </si>
@@ -455,43 +455,46 @@
 6. If DataQueryException or any Exception occurs,  throw it to the service layer</t>
   </si>
   <si>
+    <t>co.nz.westpac.interview.simpleweatherinformationservice.Exceptions</t>
+  </si>
+  <si>
+    <t>DataQueryException</t>
+  </si>
+  <si>
+    <t>Customized Exception for exception occurred in dao layer</t>
+  </si>
+  <si>
+    <t>ServiceException</t>
+  </si>
+  <si>
+    <t>ustomized Exception for exception occurred in service layer</t>
+  </si>
+  <si>
+    <t>SimpleWeatherInformationServiceApplication</t>
+  </si>
+  <si>
+    <t>co.nz.westpac.interview.simpleweatherinformationservice</t>
+  </si>
+  <si>
+    <t>City class used for start the application</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>String[]</t>
+  </si>
+  <si>
+    <t>Excute this for initial the in-memory database and start the application</t>
+  </si>
+  <si>
     <t>1, Getting the request from the service layer
-2. call MockedDatabase's getAvailableCities method to get available cities' data
-3. return data to the service layer
+2. Call MockedDatabase's getAvailableCities method to get available cities' data
+3. Return data to the service layer
 4. If DataQueryException or any Exception occurred,  throw to the service layer</t>
   </si>
   <si>
-    <t>co.nz.westpac.interview.simpleweatherinformationservice.Exceptions</t>
-  </si>
-  <si>
-    <t>DataQueryException</t>
-  </si>
-  <si>
-    <t>Customized Exception for exception occurred in dao layer</t>
-  </si>
-  <si>
-    <t>ServiceException</t>
-  </si>
-  <si>
-    <t>ustomized Exception for exception occurred in service layer</t>
-  </si>
-  <si>
-    <t>SimpleWeatherInformationServiceApplication</t>
-  </si>
-  <si>
-    <t>co.nz.westpac.interview.simpleweatherinformationservice</t>
-  </si>
-  <si>
-    <t>City class used for start the application</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>String[]</t>
-  </si>
-  <si>
-    <t>Excute this for initial the in-memory database and start the application</t>
+    <t>Logic/Comments</t>
   </si>
 </sst>
 </file>
@@ -553,7 +556,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -576,22 +579,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -628,9 +620,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -638,9 +627,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -980,7 +966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3DE262-5779-5D41-9E7A-F5AA61D5FC2A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
@@ -1000,15 +986,15 @@
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>125</v>
+      <c r="B2" s="21" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1016,7 +1002,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1032,13 +1018,13 @@
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1050,9 +1036,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115DC55E-9174-DF40-931C-7803CBFD96CD}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A18" sqref="A18"/>
+      <selection pane="topRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1077,7 +1063,7 @@
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1161,7 +1147,7 @@
       <c r="A15" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1289,7 +1275,7 @@
       <c r="A32" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="21" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1313,7 +1299,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="18" t="s">
         <v>94</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -1341,7 +1327,7 @@
       <c r="B39" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1377,15 +1363,15 @@
         <v>2</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="23" t="s">
-        <v>121</v>
+      <c r="B46" s="21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1393,7 +1379,7 @@
         <v>7</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1408,15 +1394,15 @@
         <v>2</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="23" t="s">
-        <v>123</v>
+      <c r="B52" s="21" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1424,7 +1410,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1436,9 +1422,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CF29C3-6CCF-5E40-B7B3-48E005714D48}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1447,7 +1433,7 @@
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.83203125" customWidth="1"/>
-    <col min="5" max="5" width="43.33203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="43.33203125" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1503,8 +1489,8 @@
       <c r="D8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>6</v>
+      <c r="E8" s="16" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
@@ -1569,7 +1555,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D21" sqref="D21"/>
+      <selection pane="topRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1619,7 +1605,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -1726,7 +1712,7 @@
         <v>22</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="170" x14ac:dyDescent="0.2">
@@ -1742,7 +1728,7 @@
       <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1757,7 +1743,7 @@
       <c r="D21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1770,9 +1756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B6D489-6F2E-434C-86EF-267FE6BF2BFB}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E24" sqref="E24"/>
+      <selection pane="topRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1929,7 +1915,7 @@
         <v>22</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="188" customHeight="1" x14ac:dyDescent="0.2">
@@ -1945,7 +1931,7 @@
       <c r="D20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1958,8 +1944,8 @@
       <c r="D21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>119</v>
+      <c r="E21" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1971,9 +1957,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733CCE45-27B2-E14A-A1F2-A31BA049C60F}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B12" sqref="B12"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2056,7 +2042,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -2128,7 +2114,7 @@
         <v>22</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -2257,7 +2243,7 @@
         <v>22</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="68" x14ac:dyDescent="0.2">

--- a/documentations/1.2 Detailed Design.xlsx
+++ b/documentations/1.2 Detailed Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewzhu/projects/SimpleWeatherInformationService/documentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04DA178-79A2-5B49-ADE9-8068F61976A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53DE04D-8AA5-6D4A-BB3F-8B5DE7753334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="500" windowWidth="27900" windowHeight="16460" activeTab="1" xr2:uid="{C4F7C2B9-1629-B94C-A59B-FF182AF2B448}"/>
+    <workbookView xWindow="420" yWindow="500" windowWidth="27900" windowHeight="16420" activeTab="2" xr2:uid="{C4F7C2B9-1629-B94C-A59B-FF182AF2B448}"/>
   </bookViews>
   <sheets>
     <sheet name="Spring Framework" sheetId="11" r:id="rId1"/>
@@ -82,17 +82,10 @@
     <t>queryWeatherByCities</t>
   </si>
   <si>
-    <t>jakarta.servlet.http.HttpServletResponse</t>
-  </si>
-  <si>
     <t xml:space="preserve">java.util.List&lt;co.nz.westpac.interview.simpleweatherinformationservice.pojo.City&gt; </t>
   </si>
   <si>
     <t>org.springframework.http.ResponseEntity&lt;Object&gt;</t>
-  </si>
-  <si>
-    <t>java.util.List&lt;co.nz.westpac.interview.simpleweatherinformationservice.pojo.City&gt; 
-jakarta.servlet.http.HttpServletResponse</t>
   </si>
   <si>
     <t>getAvailableCities</t>
@@ -400,6 +393,96 @@
   </si>
   <si>
     <t>method to be implemented in the implementation class fro get the available cities' name</t>
+  </si>
+  <si>
+    <t>1. Accepting the list of cities as a query from the controller side
+2. Passing the cities information to WeatherRecordDao, call queryWeatherByCities method
+3. Getting the result  from WeatherRecordDao, Add the date information for each valid weather information 
+4.  Return the value to the controller layer
+5. if WeatherRecordDao return any exceptions, throw to the controller layer
+6. If ServiceException or any Exception occurred,  throw to the controller layer</t>
+  </si>
+  <si>
+    <t>1. Accepting the request from controller side
+2. Passing the cities information to WeatherRecordDao, call getAvailableCities method
+3.  Return the value to the controller layer
+4. if WeatherRecordDao return any exceptions, throw to the controller
+5. If ServiceException or any Exception occurred,  throw to the controller</t>
+  </si>
+  <si>
+    <t>1. Accepting the list of cities as a query request from the service layer
+2. Loop cities information, for each city get the city name, for each, call MockedDatabase's getWeatherByCity() method to get the query result 
+3. If the result is not null, put it into the return  list
+4. If the result is  null, call WeatherRecordUtil.createWeatherRecordForNotExistCity to get a weather in formation with the city not available tips
+5. Return the result list to the service Layer
+6. If DataQueryException or any Exception occurs,  throw it to the service layer</t>
+  </si>
+  <si>
+    <t>co.nz.westpac.interview.simpleweatherinformationservice.Exceptions</t>
+  </si>
+  <si>
+    <t>DataQueryException</t>
+  </si>
+  <si>
+    <t>Customized Exception for exception occurred in dao layer</t>
+  </si>
+  <si>
+    <t>ServiceException</t>
+  </si>
+  <si>
+    <t>ustomized Exception for exception occurred in service layer</t>
+  </si>
+  <si>
+    <t>SimpleWeatherInformationServiceApplication</t>
+  </si>
+  <si>
+    <t>co.nz.westpac.interview.simpleweatherinformationservice</t>
+  </si>
+  <si>
+    <t>City class used for start the application</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>String[]</t>
+  </si>
+  <si>
+    <t>Excute this for initial the in-memory database and start the application</t>
+  </si>
+  <si>
+    <t>1, Getting the request from the service layer
+2. Call MockedDatabase's getAvailableCities method to get available cities' data
+3. Return data to the service layer
+4. If DataQueryException or any Exception occurred,  throw to the service layer</t>
+  </si>
+  <si>
+    <t>Logic/Comments</t>
+  </si>
+  <si>
+    <t>java.util.List&lt;co.nz.westpac.interview.simpleweatherinformationservice.pojo.City&gt; 
+jakarta.servlet.http.HttpServletRequest
+jakarta.servlet.http.HttpServletResponse</t>
+  </si>
+  <si>
+    <t>jakarta.servlet.http.HttpServletRequest
+jakarta.servlet.http.HttpServletResponse</t>
+  </si>
+  <si>
+    <t>1. Mapoed to the uri "/""
+2. Return a simple manual to the client
+3. jakarta.servlet.http.HttpServletRequest and jakarta.servlet.http.HttpServletResponse do not need input from client side, this is default input from Spring Framework</t>
+  </si>
+  <si>
+    <t>1. Mapoed to the uri "/availablecities"
+2. call WeatherInformationService's  queryWeatherByCities method to get  all available cities for weather information query, return to client-side
+3. if ServiceException is thrown from service layer,
+get  SERVICE_EXCEPTION_MESSAGE from MessageUtil and return to client 
+4. If DataQueryExceptionis thrown from the service layer,
+get  DAO_EXCEPTION_MESSAGE from MessageUtil and return to the client 
+5. if other Exceptions thrown from the service layer,
+get  UNKNOW_EXCEPTION_MESSAGE from MessageUtil and return to the client 
+6. jakarta.servlet.http.HttpServletRequest and jakarta.servlet.http.HttpServletResponse do not need input from the client side, this is the default input from Spring Framework</t>
   </si>
   <si>
     <t>1. Mapoed to the uri "/queryweatherbycities"
@@ -413,88 +496,7 @@
 get  DAO_EXCEPTION_MESSAGE from MessageUtil and return to the client 
 8. if other Exceptions thrown from the service layer,
 get  UNKNOW_EXCEPTION_MESSAGE from MessageUtil and return to the client 
-9. jakarta.servlet.http.HttpServletResponse do not need input from client side, this is default input from Spring Framework</t>
-  </si>
-  <si>
-    <t>1. Mapoed to the uri "/availablecities"
-2. call WeatherInformationService's  queryWeatherByCities method to get  all available cities for weather information query, return to client-side
-3. if ServiceException is thrown from service layer,
-get  SERVICE_EXCEPTION_MESSAGE from MessageUtil and return to client 
-4. If DataQueryExceptionis thrown from the service layer,
-get  DAO_EXCEPTION_MESSAGE from MessageUtil and return to the client 
-5. if other Exceptions thrown from the service layer,
-get  UNKNOW_EXCEPTION_MESSAGE from MessageUtil and return to the client 
-6. jakarta.servlet.http.HttpServletResponse do not need input from the client side, this is the default input from Spring Framework</t>
-  </si>
-  <si>
-    <t>1. Mapoed to the uri "/""
-2. Return a simple manual to the client
-3. jakarta.servlet.http.HttpServletResponse do not need input from client side, this is default input from Spring Framework</t>
-  </si>
-  <si>
-    <t>1. Accepting the list of cities as a query from the controller side
-2. Passing the cities information to WeatherRecordDao, call queryWeatherByCities method
-3. Getting the result  from WeatherRecordDao, Add the date information for each valid weather information 
-4.  Return the value to the controller layer
-5. if WeatherRecordDao return any exceptions, throw to the controller layer
-6. If ServiceException or any Exception occurred,  throw to the controller layer</t>
-  </si>
-  <si>
-    <t>1. Accepting the request from controller side
-2. Passing the cities information to WeatherRecordDao, call getAvailableCities method
-3.  Return the value to the controller layer
-4. if WeatherRecordDao return any exceptions, throw to the controller
-5. If ServiceException or any Exception occurred,  throw to the controller</t>
-  </si>
-  <si>
-    <t>1. Accepting the list of cities as a query request from the service layer
-2. Loop cities information, for each city get the city name, for each, call MockedDatabase's getWeatherByCity() method to get the query result 
-3. If the result is not null, put it into the return  list
-4. If the result is  null, call WeatherRecordUtil.createWeatherRecordForNotExistCity to get a weather in formation with the city not available tips
-5. Return the result list to the service Layer
-6. If DataQueryException or any Exception occurs,  throw it to the service layer</t>
-  </si>
-  <si>
-    <t>co.nz.westpac.interview.simpleweatherinformationservice.Exceptions</t>
-  </si>
-  <si>
-    <t>DataQueryException</t>
-  </si>
-  <si>
-    <t>Customized Exception for exception occurred in dao layer</t>
-  </si>
-  <si>
-    <t>ServiceException</t>
-  </si>
-  <si>
-    <t>ustomized Exception for exception occurred in service layer</t>
-  </si>
-  <si>
-    <t>SimpleWeatherInformationServiceApplication</t>
-  </si>
-  <si>
-    <t>co.nz.westpac.interview.simpleweatherinformationservice</t>
-  </si>
-  <si>
-    <t>City class used for start the application</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>String[]</t>
-  </si>
-  <si>
-    <t>Excute this for initial the in-memory database and start the application</t>
-  </si>
-  <si>
-    <t>1, Getting the request from the service layer
-2. Call MockedDatabase's getAvailableCities method to get available cities' data
-3. Return data to the service layer
-4. If DataQueryException or any Exception occurred,  throw to the service layer</t>
-  </si>
-  <si>
-    <t>Logic/Comments</t>
+9. jakarta.servlet.http.HttpServletRequest and jakarta.servlet.http.HttpServletResponse do not need input from client side, this is default input from Spring Framework</t>
   </si>
 </sst>
 </file>
@@ -986,7 +988,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -994,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1002,7 +1004,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1010,7 +1012,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>6</v>
@@ -1018,13 +1020,13 @@
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1036,7 +1038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115DC55E-9174-DF40-931C-7803CBFD96CD}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C39" sqref="C39"/>
     </sheetView>
@@ -1056,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1064,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1072,15 +1074,15 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>6</v>
@@ -1088,21 +1090,21 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>6</v>
@@ -1110,22 +1112,22 @@
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1140,7 +1142,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1148,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1156,15 +1158,15 @@
         <v>7</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>6</v>
@@ -1172,65 +1174,65 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>6</v>
@@ -1238,22 +1240,22 @@
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1268,7 +1270,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1276,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1284,15 +1286,15 @@
         <v>7</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>6</v>
@@ -1300,32 +1302,32 @@
     </row>
     <row r="36" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>6</v>
@@ -1333,22 +1335,22 @@
     </row>
     <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1363,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1371,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1379,7 +1381,7 @@
         <v>7</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1394,7 +1396,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1402,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1410,7 +1412,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1422,9 +1424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CF29C3-6CCF-5E40-B7B3-48E005714D48}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E8" sqref="E8"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1484,64 +1486,64 @@
         <v>11</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="323" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="293" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
+      <c r="B11" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1572,12 +1574,12 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>5</v>
@@ -1588,7 +1590,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1599,13 +1601,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -1613,31 +1615,31 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1651,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1659,15 +1661,15 @@
         <v>1</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1675,7 +1677,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1692,10 +1694,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1706,13 +1708,13 @@
         <v>11</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="170" x14ac:dyDescent="0.2">
@@ -1720,16 +1722,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="E20" s="19" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -1738,13 +1740,13 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="E21" s="19" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1775,15 +1777,15 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1791,7 +1793,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1802,10 +1804,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>6</v>
@@ -1816,31 +1818,31 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1854,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1862,15 +1864,15 @@
         <v>1</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1878,7 +1880,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1895,10 +1897,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1909,13 +1911,13 @@
         <v>11</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="188" customHeight="1" x14ac:dyDescent="0.2">
@@ -1923,29 +1925,29 @@
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1984,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1992,15 +1994,15 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>6</v>
@@ -2008,24 +2010,24 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2036,37 +2038,37 @@
         <v>11</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2081,7 +2083,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2089,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2097,7 +2099,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2108,28 +2110,28 @@
         <v>11</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2144,7 +2146,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2152,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2160,15 +2162,15 @@
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>6</v>
@@ -2176,57 +2178,57 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -2237,28 +2239,28 @@
         <v>11</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -2273,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -2281,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2289,7 +2291,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/documentations/1.2 Detailed Design.xlsx
+++ b/documentations/1.2 Detailed Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewzhu/projects/SimpleWeatherInformationService/documentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53DE04D-8AA5-6D4A-BB3F-8B5DE7753334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9629DE68-D7C9-734D-BC07-985D6AC31DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="500" windowWidth="27900" windowHeight="16420" activeTab="2" xr2:uid="{C4F7C2B9-1629-B94C-A59B-FF182AF2B448}"/>
+    <workbookView xWindow="420" yWindow="500" windowWidth="27900" windowHeight="16420" activeTab="4" xr2:uid="{C4F7C2B9-1629-B94C-A59B-FF182AF2B448}"/>
   </bookViews>
   <sheets>
     <sheet name="Spring Framework" sheetId="11" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Repositor_ DAO layer" sheetId="5" r:id="rId5"/>
     <sheet name="Utils &amp; Constants" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="140">
   <si>
     <t>WeatherInformationController</t>
   </si>
@@ -408,14 +408,6 @@
 3.  Return the value to the controller layer
 4. if WeatherRecordDao return any exceptions, throw to the controller
 5. If ServiceException or any Exception occurred,  throw to the controller</t>
-  </si>
-  <si>
-    <t>1. Accepting the list of cities as a query request from the service layer
-2. Loop cities information, for each city get the city name, for each, call MockedDatabase's getWeatherByCity() method to get the query result 
-3. If the result is not null, put it into the return  list
-4. If the result is  null, call WeatherRecordUtil.createWeatherRecordForNotExistCity to get a weather in formation with the city not available tips
-5. Return the result list to the service Layer
-6. If DataQueryException or any Exception occurs,  throw it to the service layer</t>
   </si>
   <si>
     <t>co.nz.westpac.interview.simpleweatherinformationservice.Exceptions</t>
@@ -498,12 +490,64 @@
 get  UNKNOW_EXCEPTION_MESSAGE from MessageUtil and return to the client 
 9. jakarta.servlet.http.HttpServletRequest and jakarta.servlet.http.HttpServletResponse do not need input from client side, this is default input from Spring Framework</t>
   </si>
+  <si>
+    <t>WeatherInformationExceptionHandelController</t>
+  </si>
+  <si>
+    <t>A controller advice class to provide customized system level exception handle and make return information more friendly</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>handelHttpMessageNotReadableException</t>
+  </si>
+  <si>
+    <t>handelNotFoundException</t>
+  </si>
+  <si>
+    <t>org.springframework.http.ResponseEntity</t>
+  </si>
+  <si>
+    <t>If 400 Bad Request exception occurred wirth HttpMessageNotReadableException, call MessageUtil.getExceptionUnreadableMessage() then return with  status HttpStatus.BAD_REQUEST in ResponseEntity.</t>
+  </si>
+  <si>
+    <t>If 404 not found  exception occurred wirth HttpMessageNotReadableException, call MessageUtil.getExceptionNotFoundMessage() then return with status HttpStatus.BAD_NOT_FOUND in ResponseEntity</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Accepting the list of cities as a query request from the service layer
+2. Loop cities information, for each city get the city name, for each, call MockedDatabase's getWeatherByCity() method to get the query result </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">(Waring: call databse in each here becaue of use mocked in memory database, when use real RDS, need be optimised to access database only once) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. If the result is not null, put it into the return  list
+4. If the result is  null, call WeatherRecordUtil.createWeatherRecordForNotExistCity to get a weather in formation with the city not available tips
+5. Return the result list to the service Layer
+6. If DataQueryException or any Exception occurs,  throw it to the service layer</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -530,6 +574,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
   <fills count="5">
@@ -585,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -632,6 +681,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,7 +1040,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -996,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1004,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1020,13 +1072,13 @@
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1038,9 +1090,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115DC55E-9174-DF40-931C-7803CBFD96CD}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C39" sqref="C39"/>
+      <selection pane="topRight" activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1365,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1373,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1381,7 +1433,7 @@
         <v>7</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1396,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1404,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1412,7 +1464,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1422,11 +1474,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CF29C3-6CCF-5E40-B7B3-48E005714D48}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="topRight" activeCell="D38" sqref="C38:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1492,15 +1544,15 @@
         <v>20</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1509,7 +1561,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="323" x14ac:dyDescent="0.2">
@@ -1517,7 +1569,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
@@ -1526,7 +1578,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -1534,7 +1586,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -1543,7 +1595,105 @@
         <v>22</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1607,7 +1757,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -1714,7 +1864,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="170" x14ac:dyDescent="0.2">
@@ -1758,9 +1908,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B6D489-6F2E-434C-86EF-267FE6BF2BFB}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1917,7 +2067,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="188" customHeight="1" x14ac:dyDescent="0.2">
@@ -1934,7 +2084,7 @@
         <v>30</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -1947,7 +2097,7 @@
         <v>30</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +2194,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -2116,7 +2266,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -2245,7 +2395,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="68" x14ac:dyDescent="0.2">

--- a/documentations/1.2 Detailed Design.xlsx
+++ b/documentations/1.2 Detailed Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewzhu/projects/SimpleWeatherInformationService/documentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9629DE68-D7C9-734D-BC07-985D6AC31DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D756CEFE-D038-5541-AEA8-ED3DD0FC8809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="500" windowWidth="27900" windowHeight="16420" activeTab="4" xr2:uid="{C4F7C2B9-1629-B94C-A59B-FF182AF2B448}"/>
+    <workbookView xWindow="420" yWindow="500" windowWidth="27900" windowHeight="16420" xr2:uid="{C4F7C2B9-1629-B94C-A59B-FF182AF2B448}"/>
   </bookViews>
   <sheets>
     <sheet name="Spring Framework" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="144">
   <si>
     <t>WeatherInformationController</t>
   </si>
@@ -491,9 +491,6 @@
 9. jakarta.servlet.http.HttpServletRequest and jakarta.servlet.http.HttpServletResponse do not need input from client side, this is default input from Spring Framework</t>
   </si>
   <si>
-    <t>WeatherInformationExceptionHandelController</t>
-  </si>
-  <si>
     <t>A controller advice class to provide customized system level exception handle and make return information more friendly</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
   </si>
   <si>
     <t>If 400 Bad Request exception occurred wirth HttpMessageNotReadableException, call MessageUtil.getExceptionUnreadableMessage() then return with  status HttpStatus.BAD_REQUEST in ResponseEntity.</t>
-  </si>
-  <si>
-    <t>If 404 not found  exception occurred wirth HttpMessageNotReadableException, call MessageUtil.getExceptionNotFoundMessage() then return with status HttpStatus.BAD_NOT_FOUND in ResponseEntity</t>
   </si>
   <si>
     <r>
@@ -541,6 +535,24 @@
 5. Return the result list to the service Layer
 6. If DataQueryException or any Exception occurs,  throw it to the service layer</t>
     </r>
+  </si>
+  <si>
+    <t>WeatherInformationExceptionHandleControllerAdvice</t>
+  </si>
+  <si>
+    <t>If 405 method not support  exception occurred wirth HttpMessageNotReadableException, call MessageUtil.handleHttpRequestMethodNotSupportedException() then return with status HttpStatus.METHOD_NOT_ALLOWED in ResponseEntity</t>
+  </si>
+  <si>
+    <t>handleHttpRequestMethodNotSupportedException</t>
+  </si>
+  <si>
+    <t>A controller advice class to provide customized controller level exception handle and make return information more  friendly</t>
+  </si>
+  <si>
+    <t>public class GlobalExceptionHandleControllerAdvice</t>
+  </si>
+  <si>
+    <t>If 404 not found  exception occurred wirth HttpMessageNotReadableException, call MessageUtil.getExceptionNotFoundMessage() then return with status HttpStatus.NOT_FOUND in ResponseEntity</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3DE262-5779-5D41-9E7A-F5AA61D5FC2A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
@@ -1090,9 +1102,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115DC55E-9174-DF40-931C-7803CBFD96CD}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A49" sqref="A49:XFD49"/>
+      <selection pane="topRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1474,11 +1486,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CF29C3-6CCF-5E40-B7B3-48E005714D48}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D38" sqref="C38:D38"/>
+      <selection pane="topRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1618,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1626,7 +1638,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1639,10 +1651,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1664,36 +1676,117 @@
     </row>
     <row r="23" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="E35" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>138</v>
+      <c r="C36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1908,7 +2001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B6D489-6F2E-434C-86EF-267FE6BF2BFB}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G20" sqref="G20"/>
     </sheetView>
@@ -2084,7 +2177,7 @@
         <v>30</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="102" x14ac:dyDescent="0.2">
